--- a/Completed Projects/Bank Al-Habib 16th Floors/Variation orders/Summary of VOs.xlsx
+++ b/Completed Projects/Bank Al-Habib 16th Floors/Variation orders/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2F62CD-9CE6-4E80-B91D-82D24168AA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB07179-32C0-446D-98D5-1CFBA72D7A0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,13 +12,11 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -66,8 +64,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -224,7 +222,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -251,8 +249,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -264,13 +262,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,10 +280,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -380,11 +378,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -401,54 +396,10 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="29">
-          <cell r="H29">
-            <v>105480</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="30">
-          <cell r="H30">
-            <v>366000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -486,9 +437,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +472,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,9 +524,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -749,7 +734,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45178</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -810,8 +795,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="17">
-        <f>[2]Sheet1!$H$29</f>
-        <v>105480</v>
+        <v>101190</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,10 +805,7 @@
       <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="17">
-        <f>[3]Sheet1!$H$30</f>
-        <v>366000</v>
-      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
@@ -838,7 +819,7 @@
       </c>
       <c r="C20" s="21">
         <f>SUM(C16:C19)</f>
-        <v>657480</v>
+        <v>287190</v>
       </c>
       <c r="D20" s="22"/>
     </row>
